--- a/Lección 46 - Escucha y practica 20 oraciones con Was y Were/TALLER DE PRÁCTICA.xlsx
+++ b/Lección 46 - Escucha y practica 20 oraciones con Was y Were/TALLER DE PRÁCTICA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="111">
   <si>
     <t>REVIEW WORKSHOP</t>
   </si>
@@ -650,7 +650,31 @@
     <t xml:space="preserve">Jorge and Karla weren´t in Paris a month ago. </t>
   </si>
   <si>
-    <t xml:space="preserve">Were Jorge and Karla were in Paris a mouth ago </t>
+    <t>No, because he´s in his office today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, because he was with his wife in the park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, because she´s working in a big company now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, because they were watching a good movie </t>
+  </si>
+  <si>
+    <t>Hasta ahora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prensente </t>
+  </si>
+  <si>
+    <t>mostrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Were Jorge and Karla in Paris a mouth ago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is Jackson. Yesterday, he and his sister Luisa were visiting their friends Mike and Peter. Mike was working with Jackson in a big company for 7 years and Luisa was. Working with Peter since last year. A year go, they were on vacation in Costa Rica. Last night, they were drinking wine while they spoke of their vacations for almost 8 hours. Luisa was showing them the pictures while they remenbered those moments in that country. Everyone was happy </t>
   </si>
 </sst>
 </file>
@@ -952,32 +976,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -992,15 +999,38 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1011,12 +1041,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3364,8 +3388,8 @@
   </sheetPr>
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:N50"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A77" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3388,60 +3412,64 @@
     <row r="3" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:14" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
@@ -3450,19 +3478,19 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="23" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
@@ -3471,19 +3499,19 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="23" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
@@ -3492,19 +3520,19 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="23" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
@@ -3513,19 +3541,19 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="23" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -3534,19 +3562,19 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -3555,19 +3583,19 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
@@ -3576,19 +3604,19 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
@@ -3597,19 +3625,19 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="23" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -3618,19 +3646,19 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
@@ -3639,19 +3667,19 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -3660,19 +3688,19 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
@@ -3681,40 +3709,40 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="23" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
@@ -3723,19 +3751,19 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="23" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
@@ -3744,19 +3772,19 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="23" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
@@ -3765,67 +3793,67 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="23" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -3840,50 +3868,50 @@
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C31,"")</f>
-        <v/>
+        <v xml:space="preserve">She wasn’t / was not happy yesterday </v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C32,"")</f>
-        <v/>
+        <v>Was she happy yesterday?</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3899,50 +3927,50 @@
       <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C37,"")</f>
-        <v/>
+        <v>You were not /weren’t in Santa Marta last week.</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C38,"")</f>
-        <v/>
+        <v>Were you in Santa Marta last week?</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3958,50 +3986,50 @@
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
     </row>
     <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C43,"")</f>
-        <v/>
+        <v>Carlos and Marcos were not / weren’t at the disco last weekend.</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C44,"")</f>
-        <v/>
+        <v>Were Carlos and Marcos at the disco last weekend?</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4017,39 +4045,39 @@
       <c r="B49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
     </row>
     <row r="50" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+      <c r="C50" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -4063,47 +4091,47 @@
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C51" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C49,"")</f>
-        <v/>
+        <v>Jorge and Karla were not / weren’t in Paris a month ago.</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C52" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C50,"")</f>
-        <v/>
+        <v>Were Jorge and Karla in Paris a month ago?</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
     </row>
     <row r="55" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
@@ -4172,115 +4200,137 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
+      <c r="C67" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="N67"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!C67,"")</f>
-        <v/>
+        <v>am</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!D67,"")</f>
-        <v/>
+        <v>was</v>
       </c>
       <c r="E68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!E67,"")</f>
-        <v/>
+        <v>were</v>
       </c>
       <c r="F68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!F67,"")</f>
-        <v/>
+        <v>is</v>
       </c>
       <c r="G68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!G67,"")</f>
-        <v/>
+        <v>is</v>
       </c>
       <c r="H68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!H67,"")</f>
-        <v/>
+        <v>was</v>
       </c>
       <c r="I68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!I67,"")</f>
-        <v/>
+        <v>were</v>
       </c>
       <c r="J68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!J67,"")</f>
-        <v/>
+        <v>were</v>
       </c>
       <c r="K68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!K67,"")</f>
-        <v/>
+        <v>is</v>
       </c>
       <c r="L68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!L67,"")</f>
-        <v/>
+        <v>are</v>
       </c>
       <c r="M68" s="12" t="str">
         <f>IF($L$118="mostrar",Resultados!M67,"")</f>
-        <v/>
+        <v>were</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -4292,23 +4342,25 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
+      <c r="C75" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C74,"")</f>
-        <v/>
+        <v xml:space="preserve">Is Frank in his house today? </v>
       </c>
     </row>
     <row r="77" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4321,23 +4373,25 @@
       </c>
     </row>
     <row r="79" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
+      <c r="C79" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C78,"")</f>
-        <v/>
+        <v>Was Frank at the park with his son yesterday?</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4350,23 +4404,25 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
+      <c r="C83" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C82,"")</f>
-        <v/>
+        <v>Was Frank at the park with his son yesterday?</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4379,23 +4435,25 @@
       </c>
     </row>
     <row r="87" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
+      <c r="C87" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C88" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C86,"")</f>
-        <v/>
+        <v>Is Frank’s wife working in a pet shop now?</v>
       </c>
     </row>
     <row r="89" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4408,57 +4466,59 @@
       </c>
     </row>
     <row r="91" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
+      <c r="C91" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C92" s="11" t="str">
         <f>IF($L$118="mostrar",Resultados!C90,"")</f>
-        <v/>
+        <v xml:space="preserve">Were Frank and his sister watching a bad movie? </v>
       </c>
     </row>
     <row r="93" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
     </row>
     <row r="95" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
@@ -4568,222 +4628,227 @@
     </row>
     <row r="104" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
+      <c r="B105" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="18" t="str">
+      <c r="B111" s="28" t="str">
         <f>IF($L$118="mostrar",Resultados!B105,"")</f>
-        <v/>
-      </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
+        <v>He’s Jackson. Yesterday, he and his sister Luisa were visiting their friends Mike and Peter. Mike was working with Jackson in a big company for 7 years, and Luisa was working with Peter since last year. A year ago, they were on vacation to Costa Rica.
+Last night, they were drinking wine while talking / speaking about their vacation for almost 8 hours. Luisa was showing them the photos while they remembered those moments in that country. Everybody / Everyone was happy.</v>
+      </c>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="28"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
     </row>
     <row r="117" spans="2:14" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25"/>
@@ -4797,61 +4862,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HTl6LdM/+VaOCpFnC8aCVAj5LaCrlSXYkCIz507Gyw2rSwFHwb7FqpM0M0FEwoWmAUYUFBqK3hohkquLG+SbVw==" saltValue="LVQZ/C70G9AynXRgiH0Fwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="77">
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="L118:N118"/>
+    <mergeCell ref="B119:N119"/>
+    <mergeCell ref="B111:N116"/>
+    <mergeCell ref="C79:N79"/>
+    <mergeCell ref="C83:N83"/>
+    <mergeCell ref="C87:N87"/>
+    <mergeCell ref="C91:N91"/>
+    <mergeCell ref="B94:N95"/>
+    <mergeCell ref="B105:N110"/>
     <mergeCell ref="C75:N75"/>
     <mergeCell ref="B26:N28"/>
     <mergeCell ref="C31:N31"/>
@@ -4864,16 +4884,61 @@
     <mergeCell ref="C50:N50"/>
     <mergeCell ref="B54:N55"/>
     <mergeCell ref="B70:N72"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="L118:N118"/>
-    <mergeCell ref="B119:N119"/>
-    <mergeCell ref="B111:N116"/>
-    <mergeCell ref="C79:N79"/>
-    <mergeCell ref="C83:N83"/>
-    <mergeCell ref="C87:N87"/>
-    <mergeCell ref="C91:N91"/>
-    <mergeCell ref="B94:N95"/>
-    <mergeCell ref="B105:N110"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="29" priority="30">
@@ -5063,64 +5128,64 @@
     <row r="3" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:14" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="31" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="31" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
@@ -5129,19 +5194,19 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
@@ -5150,19 +5215,19 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="31" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
@@ -5171,19 +5236,19 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="31" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
@@ -5192,19 +5257,19 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -5213,19 +5278,19 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -5234,19 +5299,19 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="31" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
@@ -5255,19 +5320,19 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="31" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
@@ -5276,19 +5341,19 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -5297,19 +5362,19 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="31" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
@@ -5318,19 +5383,19 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="31" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -5339,19 +5404,19 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
@@ -5360,40 +5425,40 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="31" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="31" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31" t="s">
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
@@ -5402,19 +5467,19 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="31" t="s">
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
@@ -5423,19 +5488,19 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
@@ -5444,67 +5509,67 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="31" t="s">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -5519,39 +5584,39 @@
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25"/>
@@ -5568,39 +5633,39 @@
       <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25"/>
@@ -5617,39 +5682,39 @@
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
     </row>
     <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25"/>
@@ -5666,39 +5731,39 @@
       <c r="B49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
     </row>
     <row r="50" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -5713,36 +5778,36 @@
     <row r="52" spans="2:24" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
     </row>
     <row r="55" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
@@ -5853,51 +5918,51 @@
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -5909,20 +5974,20 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="77" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5935,20 +6000,20 @@
       </c>
     </row>
     <row r="79" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="81" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5961,20 +6026,20 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="85" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5987,20 +6052,20 @@
       </c>
     </row>
     <row r="87" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="89" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6013,54 +6078,54 @@
       </c>
     </row>
     <row r="91" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="93" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
     </row>
     <row r="95" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
@@ -6170,96 +6235,96 @@
     </row>
     <row r="104" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="34"/>
-      <c r="N105" s="34"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="30"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="30"/>
+      <c r="N106" s="30"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="34"/>
-      <c r="M107" s="34"/>
-      <c r="N107" s="34"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="34"/>
-      <c r="L109" s="34"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="34"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30"/>
     </row>
     <row r="111" spans="2:14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="2:14" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6269,37 +6334,37 @@
     <row r="116" spans="2:15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="2:15" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="31"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="31"/>
       <c r="O118" s="14"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.25"/>
     <row r="121" spans="2:15" x14ac:dyDescent="0.25"/>
@@ -6312,6 +6377,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="gmkCClz4oUMu+JGMCwbm5tVdRpGG16ES+WTGa/sw/xrlwWX4E3g3wbAa07sIlHLUl8jHse9BfiM4z+n0sA/WiQ==" saltValue="w1R3WOzDra4PqkEtMKfK5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="75">
+    <mergeCell ref="C83:N83"/>
+    <mergeCell ref="C87:N87"/>
+    <mergeCell ref="C91:N91"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="C75:N75"/>
+    <mergeCell ref="C79:N79"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="B54:N55"/>
+    <mergeCell ref="B70:N72"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B119:N119"/>
     <mergeCell ref="B105:N110"/>
     <mergeCell ref="B94:N95"/>
@@ -6328,65 +6452,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C75:N75"/>
-    <mergeCell ref="C79:N79"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="C49:N49"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="B54:N55"/>
-    <mergeCell ref="B70:N72"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C83:N83"/>
-    <mergeCell ref="C87:N87"/>
-    <mergeCell ref="C91:N91"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
